--- a/indigoData/ecoli_loewe.xlsx
+++ b/indigoData/ecoli_loewe.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1860" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2170" uniqueCount="10">
   <si>
     <t>RIF</t>
   </si>
@@ -85,7 +85,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -103,11 +103,13 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -119,6 +121,8 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1795,10 +1799,10 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9" t="s">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
       <c r="K1">
@@ -1806,10 +1810,10 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="9" t="s">
+      <c r="A2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>2</v>
       </c>
       <c r="K2">
@@ -1817,10 +1821,10 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="9" t="s">
+      <c r="A3" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>3</v>
       </c>
       <c r="K3">
@@ -1828,10 +1832,10 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="9" t="s">
+      <c r="A4" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="11" t="s">
         <v>4</v>
       </c>
       <c r="K4">
@@ -1839,10 +1843,10 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="9" t="s">
+      <c r="A5" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="11" t="s">
         <v>5</v>
       </c>
       <c r="K5">
@@ -1850,10 +1854,10 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="9" t="s">
+      <c r="A6" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="11" t="s">
         <v>6</v>
       </c>
       <c r="K6">
@@ -1861,10 +1865,10 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="9" t="s">
+      <c r="A7" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="11" t="s">
         <v>7</v>
       </c>
       <c r="K7">
@@ -1872,10 +1876,10 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="9" t="s">
+      <c r="A8" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="11" t="s">
         <v>8</v>
       </c>
       <c r="K8">
@@ -1883,10 +1887,10 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="9" t="s">
+      <c r="A9" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="11" t="s">
         <v>9</v>
       </c>
       <c r="K9">
@@ -1894,10 +1898,10 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" s="9" t="s">
+      <c r="A10" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="11" t="s">
         <v>2</v>
       </c>
       <c r="K10">
@@ -1905,10 +1909,10 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" s="9" t="s">
+      <c r="A11" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="11" t="s">
         <v>3</v>
       </c>
       <c r="K11">
@@ -1916,10 +1920,10 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" s="9" t="s">
+      <c r="A12" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="11" t="s">
         <v>4</v>
       </c>
       <c r="K12">
@@ -1927,10 +1931,10 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13" s="9" t="s">
+      <c r="A13" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="11" t="s">
         <v>5</v>
       </c>
       <c r="K13">
@@ -1938,10 +1942,10 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B14" s="9" t="s">
+      <c r="A14" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="11" t="s">
         <v>6</v>
       </c>
       <c r="K14">
@@ -1949,10 +1953,10 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B15" s="9" t="s">
+      <c r="A15" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="11" t="s">
         <v>7</v>
       </c>
       <c r="K15">
@@ -1960,10 +1964,10 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B16" s="9" t="s">
+      <c r="A16" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="11" t="s">
         <v>8</v>
       </c>
       <c r="K16">
@@ -1971,10 +1975,10 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B17" s="9" t="s">
+      <c r="A17" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="11" t="s">
         <v>9</v>
       </c>
       <c r="K17">
@@ -1982,10 +1986,10 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B18" s="9" t="s">
+      <c r="A18" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="11" t="s">
         <v>3</v>
       </c>
       <c r="K18">
@@ -1993,10 +1997,10 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B19" s="9" t="s">
+      <c r="A19" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" s="11" t="s">
         <v>4</v>
       </c>
       <c r="K19">
@@ -2004,10 +2008,10 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B20" s="9" t="s">
+      <c r="A20" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="11" t="s">
         <v>5</v>
       </c>
       <c r="K20">
@@ -2015,10 +2019,10 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B21" s="9" t="s">
+      <c r="A21" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" s="11" t="s">
         <v>6</v>
       </c>
       <c r="K21">
@@ -2026,10 +2030,10 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B22" s="9" t="s">
+      <c r="A22" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" s="11" t="s">
         <v>7</v>
       </c>
       <c r="K22">
@@ -2037,10 +2041,10 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B23" s="9" t="s">
+      <c r="A23" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" s="11" t="s">
         <v>8</v>
       </c>
       <c r="K23">
@@ -2048,10 +2052,10 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B24" s="9" t="s">
+      <c r="A24" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" s="11" t="s">
         <v>9</v>
       </c>
       <c r="K24">
@@ -2059,10 +2063,10 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B25" s="9" t="s">
+      <c r="A25" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="11" t="s">
         <v>4</v>
       </c>
       <c r="K25">
@@ -2070,10 +2074,10 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B26" s="9" t="s">
+      <c r="A26" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" s="11" t="s">
         <v>5</v>
       </c>
       <c r="K26">
@@ -2081,10 +2085,10 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B27" s="9" t="s">
+      <c r="A27" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" s="11" t="s">
         <v>6</v>
       </c>
       <c r="K27">
@@ -2092,10 +2096,10 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B28" s="9" t="s">
+      <c r="A28" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="11" t="s">
         <v>7</v>
       </c>
       <c r="K28">
@@ -2103,10 +2107,10 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B29" s="9" t="s">
+      <c r="A29" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29" s="11" t="s">
         <v>8</v>
       </c>
       <c r="K29">
@@ -2114,10 +2118,10 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B30" s="9" t="s">
+      <c r="A30" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30" s="11" t="s">
         <v>9</v>
       </c>
       <c r="K30">
@@ -2125,10 +2129,10 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B31" s="9" t="s">
+      <c r="A31" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" s="11" t="s">
         <v>5</v>
       </c>
       <c r="K31">
@@ -2136,10 +2140,10 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B32" s="9" t="s">
+      <c r="A32" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" s="11" t="s">
         <v>6</v>
       </c>
       <c r="K32">
@@ -2147,10 +2151,10 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B33" s="9" t="s">
+      <c r="A33" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" s="11" t="s">
         <v>7</v>
       </c>
       <c r="K33">
@@ -2158,10 +2162,10 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B34" s="9" t="s">
+      <c r="A34" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" s="11" t="s">
         <v>8</v>
       </c>
       <c r="K34">
@@ -2169,10 +2173,10 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B35" s="9" t="s">
+      <c r="A35" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" s="11" t="s">
         <v>9</v>
       </c>
       <c r="K35">
@@ -2180,10 +2184,10 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B36" s="9" t="s">
+      <c r="A36" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" s="11" t="s">
         <v>6</v>
       </c>
       <c r="K36">
@@ -2191,10 +2195,10 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B37" s="9" t="s">
+      <c r="A37" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" s="11" t="s">
         <v>7</v>
       </c>
       <c r="K37">
@@ -2202,10 +2206,10 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B38" s="9" t="s">
+      <c r="A38" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" s="11" t="s">
         <v>8</v>
       </c>
       <c r="K38">
@@ -2213,10 +2217,10 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B39" s="9" t="s">
+      <c r="A39" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39" s="11" t="s">
         <v>9</v>
       </c>
       <c r="K39">
@@ -2224,10 +2228,10 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B40" s="9" t="s">
+      <c r="A40" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40" s="11" t="s">
         <v>7</v>
       </c>
       <c r="K40">
@@ -2235,10 +2239,10 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B41" s="9" t="s">
+      <c r="A41" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B41" s="11" t="s">
         <v>8</v>
       </c>
       <c r="K41">
@@ -2246,10 +2250,10 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B42" s="9" t="s">
+      <c r="A42" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42" s="11" t="s">
         <v>9</v>
       </c>
       <c r="K42">
@@ -2257,10 +2261,10 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B43" s="9" t="s">
+      <c r="A43" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B43" s="11" t="s">
         <v>8</v>
       </c>
       <c r="K43">
@@ -2268,10 +2272,10 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B44" s="9" t="s">
+      <c r="A44" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B44" s="11" t="s">
         <v>9</v>
       </c>
       <c r="K44">
@@ -2279,10 +2283,10 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B45" s="9" t="s">
+      <c r="A45" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B45" s="11" t="s">
         <v>9</v>
       </c>
       <c r="K45">
@@ -2290,13 +2294,13 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B46" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C46" s="9" t="s">
+      <c r="A46" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C46" s="11" t="s">
         <v>9</v>
       </c>
       <c r="K46">
@@ -2304,13 +2308,13 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B47" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C47" s="9" t="s">
+      <c r="A47" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" s="11" t="s">
         <v>8</v>
       </c>
       <c r="K47">
@@ -2318,13 +2322,13 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B48" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C48" s="9" t="s">
+      <c r="A48" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C48" s="11" t="s">
         <v>6</v>
       </c>
       <c r="K48">
@@ -2332,13 +2336,13 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B49" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C49" s="9" t="s">
+      <c r="A49" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C49" s="11" t="s">
         <v>5</v>
       </c>
       <c r="K49">
@@ -2346,13 +2350,13 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B50" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C50" s="9" t="s">
+      <c r="A50" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C50" s="11" t="s">
         <v>7</v>
       </c>
       <c r="K50">
@@ -2360,13 +2364,13 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B51" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C51" s="9" t="s">
+      <c r="A51" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C51" s="11" t="s">
         <v>9</v>
       </c>
       <c r="K51">
@@ -2374,13 +2378,13 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B52" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C52" s="9" t="s">
+      <c r="A52" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B52" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C52" s="11" t="s">
         <v>8</v>
       </c>
       <c r="K52">
@@ -2388,13 +2392,13 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B53" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C53" s="9" t="s">
+      <c r="A53" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B53" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C53" s="11" t="s">
         <v>9</v>
       </c>
       <c r="K53">
@@ -2402,19 +2406,19 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B54" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C54" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D54" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E54" s="9" t="s">
+      <c r="A54" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B54" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D54" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E54" s="11" t="s">
         <v>9</v>
       </c>
       <c r="K54">
@@ -2422,19 +2426,19 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B55" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C55" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D55" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E55" s="9" t="s">
+      <c r="A55" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B55" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D55" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E55" s="11" t="s">
         <v>8</v>
       </c>
       <c r="K55">
@@ -2442,19 +2446,19 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B56" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C56" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D56" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E56" s="9" t="s">
+      <c r="A56" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B56" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C56" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D56" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E56" s="11" t="s">
         <v>6</v>
       </c>
       <c r="K56">
@@ -2462,19 +2466,19 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B57" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C57" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D57" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E57" s="9" t="s">
+      <c r="A57" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B57" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D57" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E57" s="11" t="s">
         <v>9</v>
       </c>
       <c r="K57">
@@ -2482,19 +2486,19 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B58" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C58" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D58" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E58" s="9" t="s">
+      <c r="A58" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B58" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D58" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E58" s="11" t="s">
         <v>9</v>
       </c>
       <c r="K58">
@@ -2502,19 +2506,19 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B59" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C59" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D59" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E59" s="9" t="s">
+      <c r="A59" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B59" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C59" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D59" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E59" s="11" t="s">
         <v>6</v>
       </c>
       <c r="K59">
@@ -2522,19 +2526,19 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B60" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C60" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D60" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E60" s="9" t="s">
+      <c r="A60" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B60" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C60" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D60" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E60" s="11" t="s">
         <v>8</v>
       </c>
       <c r="K60">
@@ -2542,19 +2546,19 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B61" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C61" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D61" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E61" s="9" t="s">
+      <c r="A61" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B61" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C61" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D61" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E61" s="11" t="s">
         <v>9</v>
       </c>
       <c r="K61">
@@ -2562,25 +2566,25 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B62" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C62" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D62" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E62" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F62" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G62" s="9" t="s">
+      <c r="A62" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B62" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C62" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D62" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E62" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F62" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G62" s="11" t="s">
         <v>6</v>
       </c>
       <c r="K62">
@@ -2588,25 +2592,25 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B63" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C63" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D63" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E63" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F63" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G63" s="9" t="s">
+      <c r="A63" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B63" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C63" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D63" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E63" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F63" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G63" s="11" t="s">
         <v>7</v>
       </c>
       <c r="K63">
@@ -2614,25 +2618,25 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B64" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C64" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D64" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E64" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F64" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G64" s="9" t="s">
+      <c r="A64" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B64" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C64" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D64" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E64" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F64" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G64" s="11" t="s">
         <v>8</v>
       </c>
       <c r="K64">
@@ -2640,25 +2644,25 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B65" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C65" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D65" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E65" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F65" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="G65" s="9" t="s">
+      <c r="A65" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B65" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C65" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D65" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E65" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F65" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G65" s="11" t="s">
         <v>9</v>
       </c>
       <c r="K65">
@@ -2666,25 +2670,25 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B66" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C66" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D66" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E66" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F66" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="G66" s="9" t="s">
+      <c r="A66" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B66" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C66" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D66" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E66" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F66" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G66" s="11" t="s">
         <v>9</v>
       </c>
       <c r="K66">
@@ -2692,25 +2696,25 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B67" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C67" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D67" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E67" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F67" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G67" s="9" t="s">
+      <c r="A67" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B67" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C67" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D67" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E67" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F67" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G67" s="11" t="s">
         <v>9</v>
       </c>
       <c r="K67">
@@ -2718,25 +2722,25 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B68" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C68" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D68" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E68" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F68" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="G68" s="9" t="s">
+      <c r="A68" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B68" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C68" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D68" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E68" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F68" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G68" s="11" t="s">
         <v>9</v>
       </c>
       <c r="K68">
@@ -2744,25 +2748,25 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B69" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C69" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D69" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E69" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F69" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G69" s="9" t="s">
+      <c r="A69" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B69" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C69" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D69" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E69" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F69" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G69" s="11" t="s">
         <v>9</v>
       </c>
       <c r="K69">
@@ -2770,31 +2774,31 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B70" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C70" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D70" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E70" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F70" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G70" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H70" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="I70" s="9" t="s">
+      <c r="A70" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B70" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C70" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D70" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E70" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F70" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G70" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H70" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I70" s="11" t="s">
         <v>8</v>
       </c>
       <c r="K70">
@@ -2802,31 +2806,31 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B71" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C71" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D71" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E71" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F71" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G71" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H71" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="I71" s="9" t="s">
+      <c r="A71" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B71" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C71" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D71" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E71" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F71" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G71" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H71" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I71" s="11" t="s">
         <v>9</v>
       </c>
       <c r="K71">
@@ -2834,31 +2838,31 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B72" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C72" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D72" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E72" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F72" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G72" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H72" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="I72" s="9" t="s">
+      <c r="A72" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B72" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C72" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D72" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E72" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F72" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G72" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H72" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="I72" s="11" t="s">
         <v>9</v>
       </c>
       <c r="K72">
@@ -2866,31 +2870,31 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B73" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C73" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D73" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E73" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F73" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G73" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H73" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="I73" s="9" t="s">
+      <c r="A73" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B73" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C73" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D73" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E73" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F73" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G73" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H73" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="I73" s="11" t="s">
         <v>9</v>
       </c>
       <c r="K73">
@@ -2898,31 +2902,31 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B74" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C74" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D74" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E74" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F74" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G74" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H74" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="I74" s="9" t="s">
+      <c r="A74" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B74" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C74" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D74" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E74" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F74" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G74" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H74" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="I74" s="11" t="s">
         <v>9</v>
       </c>
       <c r="K74">
@@ -2930,31 +2934,31 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B75" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C75" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D75" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E75" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F75" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G75" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H75" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="I75" s="9" t="s">
+      <c r="A75" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B75" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C75" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D75" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E75" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F75" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G75" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H75" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="I75" s="11" t="s">
         <v>9</v>
       </c>
       <c r="K75">
@@ -2962,31 +2966,31 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B76" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C76" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D76" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E76" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F76" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G76" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H76" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="I76" s="9" t="s">
+      <c r="A76" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B76" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C76" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D76" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E76" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F76" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G76" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H76" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="I76" s="11" t="s">
         <v>9</v>
       </c>
       <c r="K76">
@@ -2994,31 +2998,31 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B77" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C77" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D77" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E77" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F77" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G77" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H77" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="I77" s="9" t="s">
+      <c r="A77" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B77" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C77" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D77" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E77" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F77" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G77" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H77" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="I77" s="11" t="s">
         <v>9</v>
       </c>
       <c r="K77">
@@ -3026,31 +3030,31 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B78" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C78" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D78" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E78" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F78" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G78" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H78" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="I78" s="9" t="s">
+      <c r="A78" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B78" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C78" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D78" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E78" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F78" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G78" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H78" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="I78" s="11" t="s">
         <v>9</v>
       </c>
       <c r="K78">
@@ -3058,31 +3062,31 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B79" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C79" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D79" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E79" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F79" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G79" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H79" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="I79" s="9" t="s">
+      <c r="A79" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B79" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C79" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D79" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E79" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F79" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G79" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H79" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="I79" s="11" t="s">
         <v>9</v>
       </c>
       <c r="K79">
@@ -3090,34 +3094,34 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B80" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C80" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D80" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E80" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F80" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G80" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H80" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="I80" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="J80" s="9" t="s">
+      <c r="A80" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B80" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C80" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D80" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E80" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F80" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G80" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H80" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I80" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="J80" s="11" t="s">
         <v>9</v>
       </c>
       <c r="K80">
